--- a/excel/角色-role.xlsx
+++ b/excel/角色-role.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB22D29-CD01-434D-9E6B-C37CF0A8933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DEF38-4EF8-42FF-96AA-FAF4E12D5B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1815" windowWidth="35850" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,23 @@
   </si>
   <si>
     <t>213321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,7 +582,7 @@
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -626,7 +643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -655,7 +672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -684,7 +701,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,15 +747,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>1001</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="C7" s="2">
+        <f>K7*L7</f>
+        <v>5.5</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -750,16 +768,23 @@
       <c r="I7" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>1001</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C10" si="0">K8*L8</f>
+        <v>6.6000000000000005</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -774,16 +799,23 @@
       <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>1002</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000011</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -801,16 +833,23 @@
       <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1002</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -827,43 +866,49 @@
       <c r="I10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/excel/角色-role.xlsx
+++ b/excel/角色-role.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DEF38-4EF8-42FF-96AA-FAF4E12D5B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7939945-2736-4B85-A231-5F6795840F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="35850" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1470" windowWidth="35850" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息-info" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>img1,img2,img6</t>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skill</t>
@@ -567,7 +563,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -628,19 +624,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -648,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -660,16 +656,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -683,22 +679,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -715,19 +711,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -741,10 +737,10 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -763,16 +759,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -791,19 +787,19 @@
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -822,22 +818,22 @@
         <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -852,25 +848,25 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1117,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>12312</v>
@@ -1128,10 +1124,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
